--- a/data/processed/state_overviews/louisiana_overview.xlsx
+++ b/data/processed/state_overviews/louisiana_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1214</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,214</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Acadia Parish</t>
         </is>
       </c>
-      <c r="B2">
-        <v>7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Allen Parish</t>
         </is>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Ascension Parish</t>
         </is>
       </c>
-      <c r="B4">
-        <v>6</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Assumption Parish</t>
         </is>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Avoyelles Parish</t>
         </is>
       </c>
-      <c r="B6">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Beauregard Parish</t>
         </is>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Bienville Parish</t>
         </is>
       </c>
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Bossier Parish</t>
         </is>
       </c>
-      <c r="B9">
-        <v>13</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Caddo Parish</t>
         </is>
       </c>
-      <c r="B10">
-        <v>81</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Calcasieu Parish</t>
         </is>
       </c>
-      <c r="B11">
-        <v>35</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Caldwell Parish</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Cameron Parish</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Catahoula Parish</t>
         </is>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Claiborne Parish</t>
         </is>
       </c>
-      <c r="B15">
-        <v>2</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Concordia Parish</t>
         </is>
       </c>
-      <c r="B16">
-        <v>7</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>De Soto Parish</t>
         </is>
       </c>
-      <c r="B17">
-        <v>4</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>East Baton Rouge Parish</t>
         </is>
       </c>
-      <c r="B18">
-        <v>177</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>East Carroll Parish</t>
         </is>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>East Feliciana Parish</t>
         </is>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Evangeline Parish</t>
         </is>
       </c>
-      <c r="B21">
-        <v>7</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Franklin Parish</t>
         </is>
       </c>
-      <c r="B22">
-        <v>4</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Grant Parish</t>
         </is>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Iberia Parish</t>
         </is>
       </c>
-      <c r="B24">
-        <v>8</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Iberville Parish</t>
         </is>
       </c>
-      <c r="B25">
-        <v>6</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Jackson Parish</t>
         </is>
       </c>
-      <c r="B26">
-        <v>3</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Jefferson Davis Parish</t>
         </is>
       </c>
-      <c r="B27">
-        <v>6</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Jefferson Parish</t>
         </is>
       </c>
-      <c r="B28">
-        <v>80</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>LaSalle Parish</t>
         </is>
       </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Lafayette Parish</t>
         </is>
       </c>
-      <c r="B30">
-        <v>97</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Lafourche Parish</t>
         </is>
       </c>
-      <c r="B31">
-        <v>20</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Lincoln Parish</t>
         </is>
       </c>
-      <c r="B32">
-        <v>17</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Livingston Parish</t>
         </is>
       </c>
-      <c r="B33">
-        <v>7</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Madison Parish</t>
         </is>
       </c>
-      <c r="B34">
-        <v>4</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Morehouse Parish</t>
         </is>
       </c>
-      <c r="B35">
-        <v>8</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Natchitoches Parish</t>
         </is>
       </c>
-      <c r="B36">
-        <v>13</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Orleans Parish</t>
         </is>
       </c>
-      <c r="B37">
-        <v>305</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Ouachita Parish</t>
         </is>
       </c>
-      <c r="B38">
-        <v>52</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Plaquemines Parish</t>
         </is>
       </c>
-      <c r="B39">
-        <v>2</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Pointe Coupee Parish</t>
         </is>
       </c>
-      <c r="B40">
-        <v>3</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Rapides Parish</t>
         </is>
       </c>
-      <c r="B41">
-        <v>36</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Red River Parish</t>
         </is>
       </c>
-      <c r="B42">
-        <v>2</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Richland Parish</t>
         </is>
       </c>
-      <c r="B43">
-        <v>2</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Sabine Parish</t>
         </is>
       </c>
-      <c r="B44">
-        <v>2</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>St. Bernard Parish</t>
         </is>
       </c>
-      <c r="B45">
-        <v>4</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>St. Charles Parish</t>
         </is>
       </c>
-      <c r="B46">
-        <v>6</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>St. James Parish</t>
         </is>
       </c>
-      <c r="B47">
-        <v>2</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>St. John the Baptist Parish</t>
         </is>
       </c>
-      <c r="B48">
-        <v>3</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>St. Landry Parish</t>
         </is>
       </c>
-      <c r="B49">
-        <v>15</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>St. Martin Parish</t>
         </is>
       </c>
-      <c r="B50">
-        <v>4</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>St. Mary Parish</t>
         </is>
       </c>
-      <c r="B51">
-        <v>10</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>St. Tammany Parish</t>
         </is>
       </c>
-      <c r="B52">
-        <v>38</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Tangipahoa Parish</t>
         </is>
       </c>
-      <c r="B53">
-        <v>26</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Tensas Parish</t>
         </is>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Terrebonne Parish</t>
         </is>
       </c>
-      <c r="B55">
-        <v>22</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Union Parish</t>
         </is>
       </c>
-      <c r="B56">
-        <v>6</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Vermilion Parish</t>
         </is>
       </c>
-      <c r="B57">
-        <v>2</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Vernon Parish</t>
         </is>
       </c>
-      <c r="B58">
-        <v>2</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Washington Parish</t>
         </is>
       </c>
-      <c r="B59">
-        <v>10</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Webster Parish</t>
         </is>
       </c>
-      <c r="B60">
-        <v>5</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>West Baton Rouge Parish</t>
         </is>
       </c>
-      <c r="B61">
-        <v>2</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>West Carroll Parish</t>
         </is>
       </c>
-      <c r="B62">
-        <v>2</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>West Feliciana Parish</t>
         </is>
       </c>
-      <c r="B63">
-        <v>2</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Winn Parish</t>
         </is>
       </c>
-      <c r="B64">
-        <v>2</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,27 +2482,61 @@
           <t>St. Helena Parish</t>
         </is>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1,214</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>$2,869,770,671</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.97%</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-27.48%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>72.08%</t>
         </is>
       </c>
     </row>
@@ -2429,8 +2591,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>149</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2459,8 +2623,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>362</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2489,8 +2655,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>168</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2519,8 +2687,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>167</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2549,8 +2719,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>188</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2579,8 +2751,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>180</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2609,8 +2783,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1214</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,214</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2684,8 +2860,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>372</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2714,8 +2892,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>330</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2744,8 +2924,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>195</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2774,8 +2956,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>99</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2804,8 +2988,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>165</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2834,8 +3020,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>53</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2864,8 +3052,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1214</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,214</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2939,8 +3129,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>106</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2969,8 +3161,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>189</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2999,8 +3193,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>32</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3029,8 +3225,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>106</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3059,8 +3257,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>17</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3089,8 +3289,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>397</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3119,8 +3321,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3149,8 +3353,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>116</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3179,8 +3385,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>19</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3209,8 +3417,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>221</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3239,8 +3449,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3269,8 +3481,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1214</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,214</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/louisiana_overview.xlsx
+++ b/data/processed/state_overviews/louisiana_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,135 +431,135 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acadia Parish</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$6,139,262</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.41%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-46.78%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Allen Parish</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1,214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3,670,985</t>
+          <t>$2,869,770,671</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.47%</t>
+          <t>7.97%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-67.47%</t>
+          <t>-27.48%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ascension Parish</t>
+          <t>Acadia Parish</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$5,197,588</t>
+          <t>$6,139,262</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.64%</t>
+          <t>4.41%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>-46.78%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Assumption Parish</t>
+          <t>Allen Parish</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,17 +569,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$3,208,846</t>
+          <t>$3,670,985</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.51%</t>
+          <t>12.47%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-46.14%</t>
+          <t>-67.47%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,263 +591,263 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avoyelles Parish</t>
+          <t>Ascension Parish</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$6,118,135</t>
+          <t>$5,197,588</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.49%</t>
+          <t>30.64%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-79.02%</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beauregard Parish</t>
+          <t>Assumption Parish</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,772,465</t>
+          <t>$3,208,846</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>26.51%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-67.96%</t>
+          <t>-46.14%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bienville Parish</t>
+          <t>Avoyelles Parish</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,061,476</t>
+          <t>$6,118,135</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-29.61%</t>
+          <t>4.49%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-94.55%</t>
+          <t>-79.02%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bossier Parish</t>
+          <t>Beauregard Parish</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$22,916,376</t>
+          <t>$1,772,465</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-58.30%</t>
+          <t>-67.96%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Caddo Parish</t>
+          <t>Bienville Parish</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$166,998,441</t>
+          <t>$1,061,476</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.44%</t>
+          <t>-29.61%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-15.61%</t>
+          <t>-94.55%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.43%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Calcasieu Parish</t>
+          <t>Bossier Parish</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$58,016,031</t>
+          <t>$22,916,376</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-5.90%</t>
+          <t>-58.30%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.71%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Caldwell Parish</t>
+          <t>Caddo Parish</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$316,241</t>
+          <t>$166,998,441</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15.05%</t>
+          <t>10.44%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-15.01%</t>
+          <t>-15.61%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>65.43%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cameron Parish</t>
+          <t>Calcasieu Parish</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$732,901</t>
+          <t>$58,016,031</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-91.96%</t>
+          <t>-5.90%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>65.71%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Catahoula Parish</t>
+          <t>Caldwell Parish</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$8,321,653</t>
+          <t>$316,241</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>15.05%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-81.10%</t>
+          <t>-15.01%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -879,27 +879,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Claiborne Parish</t>
+          <t>Cameron Parish</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$3,065,309</t>
+          <t>$732,901</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-88.65%</t>
+          <t>-91.96%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -911,27 +911,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Concordia Parish</t>
+          <t>Catahoula Parish</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$7,611,266</t>
+          <t>$8,321,653</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-44.20%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-95.03%</t>
+          <t>-81.10%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -943,155 +943,155 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>De Soto Parish</t>
+          <t>Claiborne Parish</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$2,600,072</t>
+          <t>$3,065,309</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-4.14%</t>
+          <t>-88.65%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>East Baton Rouge Parish</t>
+          <t>Concordia Parish</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$412,206,433</t>
+          <t>$7,611,266</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.88%</t>
+          <t>-44.20%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-23.17%</t>
+          <t>-95.03%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>75.71%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>East Carroll Parish</t>
+          <t>De Soto Parish</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$328,902</t>
+          <t>$2,600,072</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-1.50%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-40.11%</t>
+          <t>-4.14%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>East Feliciana Parish</t>
+          <t>East Baton Rouge Parish</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$9,011,210</t>
+          <t>$412,206,433</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-12.10%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-56.72%</t>
+          <t>-23.17%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.71%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Evangeline Parish</t>
+          <t>East Carroll Parish</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$3,440,518</t>
+          <t>$328,902</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-4.28%</t>
+          <t>-1.50%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-80.06%</t>
+          <t>-40.11%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1103,59 +1103,59 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Franklin Parish</t>
+          <t>East Feliciana Parish</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$883,037</t>
+          <t>$9,011,210</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.84%</t>
+          <t>-12.10%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-18.20%</t>
+          <t>-56.72%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Grant Parish</t>
+          <t>Evangeline Parish</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$235,167</t>
+          <t>$3,440,518</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-29.33%</t>
+          <t>-4.28%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-123.37%</t>
+          <t>-80.06%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1167,59 +1167,59 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Iberia Parish</t>
+          <t>Franklin Parish</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$9,733,152</t>
+          <t>$883,037</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13.90%</t>
+          <t>11.84%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>-18.20%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Iberville Parish</t>
+          <t>Grant Parish</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$14,627,774</t>
+          <t>$235,167</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.24%</t>
+          <t>-29.33%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-42.91%</t>
+          <t>-123.37%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1231,39 +1231,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jackson Parish</t>
+          <t>Iberia Parish</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$3,217,100</t>
+          <t>$9,733,152</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.55%</t>
+          <t>13.90%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-19.03%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jefferson Davis Parish</t>
+          <t>Iberville Parish</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1273,541 +1273,541 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$4,461,656</t>
+          <t>$14,627,774</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8.10%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-49.74%</t>
+          <t>-42.91%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jefferson Parish</t>
+          <t>Jackson Parish</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$313,065,069</t>
+          <t>$3,217,100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9.33%</t>
+          <t>7.55%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-28.05%</t>
+          <t>-19.03%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>67.50%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LaSalle Parish</t>
+          <t>Jefferson Davis Parish</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$348,291</t>
+          <t>$4,461,656</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15.00%</t>
+          <t>8.10%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-67.12%</t>
+          <t>-49.74%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lafayette Parish</t>
+          <t>Jefferson Parish</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$85,113,125</t>
+          <t>$313,065,069</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>9.33%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-54.62%</t>
+          <t>-28.05%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>77.32%</t>
+          <t>67.50%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lafourche Parish</t>
+          <t>LaSalle Parish</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$14,845,895</t>
+          <t>$348,291</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.50%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-46.85%</t>
+          <t>-67.12%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lincoln Parish</t>
+          <t>Lafayette Parish</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$10,242,007</t>
+          <t>$85,113,125</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-13.22%</t>
+          <t>-54.62%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>77.32%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Livingston Parish</t>
+          <t>Lafourche Parish</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$6,321,149</t>
+          <t>$14,845,895</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26.56%</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-48.68%</t>
+          <t>-46.85%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Madison Parish</t>
+          <t>Lincoln Parish</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$8,777,208</t>
+          <t>$10,242,007</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.29%</t>
+          <t>11.60%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-80.22%</t>
+          <t>-13.22%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>64.71%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Morehouse Parish</t>
+          <t>Livingston Parish</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$22,289,544</t>
+          <t>$6,321,149</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-5.90%</t>
+          <t>26.56%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-95.05%</t>
+          <t>-48.68%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Natchitoches Parish</t>
+          <t>Madison Parish</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$4,359,182</t>
+          <t>$8,777,208</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-5.05%</t>
+          <t>3.29%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-90.46%</t>
+          <t>-80.22%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Orleans Parish</t>
+          <t>Morehouse Parish</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$1,328,850,516</t>
+          <t>$22,289,544</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.97%</t>
+          <t>-5.90%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-17.78%</t>
+          <t>-95.05%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>67.87%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ouachita Parish</t>
+          <t>Natchitoches Parish</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$51,535,535</t>
+          <t>$4,359,182</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>-5.05%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-38.96%</t>
+          <t>-90.46%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Plaquemines Parish</t>
+          <t>Orleans Parish</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>305</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$7,518,302</t>
+          <t>$1,328,850,516</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6.37%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-49.93%</t>
+          <t>-17.78%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>67.87%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pointe Coupee Parish</t>
+          <t>Ouachita Parish</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$4,476,430</t>
+          <t>$51,535,535</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13.53%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>-38.96%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Rapides Parish</t>
+          <t>Plaquemines Parish</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$42,500,918</t>
+          <t>$7,518,302</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>6.37%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-32.87%</t>
+          <t>-49.93%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Red River Parish</t>
+          <t>Pointe Coupee Parish</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$698,252</t>
+          <t>$4,476,430</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-29.14%</t>
+          <t>13.53%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-67.59%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Richland Parish</t>
+          <t>Rapides Parish</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$9,279,711</t>
+          <t>$42,500,918</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-1.63%</t>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-93.48%</t>
+          <t>-32.87%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sabine Parish</t>
+          <t>Red River Parish</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1817,17 +1817,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$3,800,156</t>
+          <t>$698,252</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>-29.14%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-90.07%</t>
+          <t>-67.59%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1839,27 +1839,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>St. Bernard Parish</t>
+          <t>Richland Parish</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$2,216,126</t>
+          <t>$9,279,711</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-6.26%</t>
+          <t>-1.63%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-25.26%</t>
+          <t>-93.48%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1871,91 +1871,91 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>St. Charles Parish</t>
+          <t>Sabine Parish</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$11,134,847</t>
+          <t>$3,800,156</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13.00%</t>
+          <t>2.33%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>-90.07%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>St. James Parish</t>
+          <t>St. Bernard Parish</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$1,080,028</t>
+          <t>$2,216,126</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>26.17%</t>
+          <t>-6.26%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-5.16%</t>
+          <t>-25.26%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>St. John the Baptist Parish</t>
+          <t>St. Charles Parish</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$1,242,282</t>
+          <t>$11,134,847</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>33.60%</t>
+          <t>13.00%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8.07%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1967,455 +1967,455 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>St. Landry Parish</t>
+          <t>St. James Parish</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$8,779,119</t>
+          <t>$1,080,028</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12.10%</t>
+          <t>26.17%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-23.22%</t>
+          <t>-5.16%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>St. Martin Parish</t>
+          <t>St. John the Baptist Parish</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$861,600</t>
+          <t>$1,242,282</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.51%</t>
+          <t>33.60%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.68%</t>
+          <t>8.07%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>St. Mary Parish</t>
+          <t>St. Landry Parish</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$21,723,765</t>
+          <t>$8,779,119</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>12.10%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-58.46%</t>
+          <t>-23.22%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>St. Tammany Parish</t>
+          <t>St. Martin Parish</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$26,869,126</t>
+          <t>$861,600</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12.89%</t>
+          <t>4.51%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-22.64%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tangipahoa Parish</t>
+          <t>St. Mary Parish</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$49,640,442</t>
+          <t>$21,723,765</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.98%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-53.87%</t>
+          <t>-58.46%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>73.08%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tensas Parish</t>
+          <t>St. Tammany Parish</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$229,240</t>
+          <t>$26,869,126</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>12.89%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-56.79%</t>
+          <t>-22.64%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>57.89%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terrebonne Parish</t>
+          <t>Tangipahoa Parish</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$39,470,545</t>
+          <t>$49,640,442</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>3.98%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-30.62%</t>
+          <t>-53.87%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>73.08%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Union Parish</t>
+          <t>Tensas Parish</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$6,735,046</t>
+          <t>$229,240</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>-0.44%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-11.45%</t>
+          <t>-56.79%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Vermilion Parish</t>
+          <t>Terrebonne Parish</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$370,469</t>
+          <t>$39,470,545</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-9.88%</t>
+          <t>11.16%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-61.08%</t>
+          <t>-30.62%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Vernon Parish</t>
+          <t>Union Parish</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$1,398,476</t>
+          <t>$6,735,046</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12.44%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-60.31%</t>
+          <t>-11.45%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Washington Parish</t>
+          <t>Vermilion Parish</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$13,039,723</t>
+          <t>$370,469</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.59%</t>
+          <t>-9.88%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-83.53%</t>
+          <t>-61.08%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Webster Parish</t>
+          <t>Vernon Parish</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$5,326,150</t>
+          <t>$1,398,476</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>19.11%</t>
+          <t>12.44%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.73%</t>
+          <t>-60.31%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>West Baton Rouge Parish</t>
+          <t>Washington Parish</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$90,100</t>
+          <t>$13,039,723</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>18.70%</t>
+          <t>2.59%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-5.67%</t>
+          <t>-83.53%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>West Carroll Parish</t>
+          <t>Webster Parish</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$812,042</t>
+          <t>$5,326,150</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.36%</t>
+          <t>19.11%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-79.27%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>West Feliciana Parish</t>
+          <t>West Baton Rouge Parish</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2425,29 +2425,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$602,115</t>
+          <t>$90,100</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>18.70%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-63.78%</t>
+          <t>-5.67%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Winn Parish</t>
+          <t>West Carroll Parish</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2457,17 +2457,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$8,236,144</t>
+          <t>$812,042</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-5.64%</t>
+          <t>3.36%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-70.19%</t>
+          <t>-79.27%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2479,64 +2479,64 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>St. Helena Parish</t>
+          <t>West Feliciana Parish</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$602,115</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-63.78%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Winn Parish</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1,214</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$2,869,770,671</t>
+          <t>$8,236,144</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>7.97%</t>
+          <t>-5.64%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-27.48%</t>
+          <t>-70.19%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>72.08%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2556,256 +2556,288 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$565,925,873</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.76%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-15.43%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>59.06%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>1,214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,271,022,185</t>
+          <t>$2,869,770,671</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>7.97%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-22.69%</t>
+          <t>-27.48%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71.82%</t>
+          <t>72.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$187,020,657</t>
+          <t>$565,925,873</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.26%</t>
+          <t>12.76%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-42.87%</t>
+          <t>-15.43%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.21%</t>
+          <t>59.06%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>362</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$236,857,190</t>
+          <t>$1,271,022,185</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-30.63%</t>
+          <t>-22.69%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72.46%</t>
+          <t>71.82%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$238,328,803</t>
+          <t>$187,020,657</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.93%</t>
+          <t>4.26%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-50.67%</t>
+          <t>-42.87%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80.32%</t>
+          <t>73.21%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$370,615,963</t>
+          <t>$236,857,190</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.81%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-19.53%</t>
+          <t>-30.63%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>72.46%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,214</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$2,869,770,671</t>
+          <t>$238,328,803</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.97%</t>
+          <t>4.93%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-27.48%</t>
+          <t>-50.67%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>72.08%</t>
+          <t>80.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6th Congressional district</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$370,615,963</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.81%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-19.53%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -2830,34 +2862,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2889,128 +2921,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$348,028,179</t>
+          <t>$2,036,391,523</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.91%</t>
+          <t>5.95%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-27.56%</t>
+          <t>-15.12%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.64%</t>
+          <t>70.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>330</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$68,445,618</t>
+          <t>$348,028,179</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.56%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-28.90%</t>
+          <t>-27.56%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.26%</t>
+          <t>73.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>195</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$366,546,156</t>
+          <t>$68,445,618</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.11%</t>
+          <t>7.56%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-34.83%</t>
+          <t>-28.90%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80.81%</t>
+          <t>70.26%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,036,391,523</t>
+          <t>$366,546,156</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.95%</t>
+          <t>5.11%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-15.12%</t>
+          <t>-34.83%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.30%</t>
+          <t>80.81%</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3131,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3158,7 +3190,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3190,7 +3222,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3222,7 +3254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3286,7 +3318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3318,7 +3350,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3350,7 +3382,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3382,7 +3414,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3414,64 +3446,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$515,518,359</t>
+          <t>$243,099,421</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.59%</t>
+          <t>5.42%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-28.60%</t>
+          <t>-18.18%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.11%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$243,099,421</t>
+          <t>$515,518,359</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.42%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-18.18%</t>
+          <t>-28.60%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>75.11%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/louisiana_overview.xlsx
+++ b/data/processed/state_overviews/louisiana_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,214</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$2,869,770,671</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.97%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,214</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,869,770,671</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.97%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$6,139,262</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4.41%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-46.78%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$3,670,985</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>12.47%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-67.47%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$5,197,588</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>30.64%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.24%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$3,208,846</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>26.51%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-46.14%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$6,118,135</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.49%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-79.02%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$1,772,465</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-67.96%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$1,061,476</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>-29.61%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-94.55%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$22,916,376</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>6.81%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-58.30%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>65.43%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$166,998,441</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>10.44%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-15.61%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>65.43%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>65.71%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$58,016,031</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.59%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-5.90%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>65.71%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$316,241</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>15.05%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-15.01%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$732,901</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1.84%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-91.96%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$8,321,653</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>5.39%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-81.10%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$3,065,309</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-88.65%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$7,611,266</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-44.20%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-95.03%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$2,600,072</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2.58%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-4.14%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>75.71%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>177</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$412,206,433</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>7.88%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-23.17%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>75.71%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$328,902</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>-1.50%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-40.11%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$9,011,210</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>-12.10%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-56.72%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$3,440,518</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>-4.28%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-80.06%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$883,037</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>11.84%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-18.20%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$235,167</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>-29.33%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-123.37%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$9,733,152</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>13.90%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2.76%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$14,627,774</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>12.24%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-42.91%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$3,217,100</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>7.55%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-19.03%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$4,461,656</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>8.10%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-49.74%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>67.50%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$313,065,069</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>9.33%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-28.05%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>67.50%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$348,291</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>15.00%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-67.12%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>77.32%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$85,113,125</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.82%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-54.62%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>77.32%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$14,845,895</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>8.50%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-46.85%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>64.71%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$10,242,007</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>11.60%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-13.22%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$6,321,149</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>26.56%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-48.68%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$8,777,208</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>3.29%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-80.22%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$22,289,544</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>-5.90%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-95.05%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$4,359,182</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>-5.05%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-90.46%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>67.87%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>305</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$1,328,850,516</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>8.97%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-17.78%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>67.87%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$51,535,535</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-38.96%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$7,518,302</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>6.37%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-49.93%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$4,476,430</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>13.53%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>4.50%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$42,500,918</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>3.47%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-32.87%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$698,252</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>-29.14%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-67.59%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$9,279,711</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>-1.63%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-93.48%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$3,800,156</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2.33%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-90.07%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$2,216,126</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>-6.26%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-25.26%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$11,134,847</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>13.00%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>8.93%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$1,080,028</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>26.17%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-5.16%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$1,242,282</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>33.60%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>8.07%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$8,779,119</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>12.10%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-23.22%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$861,600</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>4.51%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>3.68%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$21,723,765</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>3.50%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-58.46%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>57.89%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$26,869,126</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>12.89%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-22.64%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>57.89%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>73.08%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$49,640,442</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>3.98%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-53.87%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>73.08%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$229,240</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>-0.44%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-56.79%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$39,470,545</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>11.16%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-30.62%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$6,735,046</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>8.28%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$370,469</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>-9.88%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-61.08%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$1,398,476</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>12.44%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-60.31%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$13,039,723</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2.59%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-83.53%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$5,326,150</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>19.11%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>6.73%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$90,100</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>18.70%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-5.67%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$812,042</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>3.36%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-79.27%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$602,115</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>10.25%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-63.78%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$8,236,144</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>-5.64%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-70.19%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2561,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2593,27 +2593,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2625,219 +2625,219 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,214</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,869,770,671</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.97%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>59.06%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>149</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$565,925,873</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.76%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-15.43%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>59.06%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.82%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,271,022,185</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.78%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-22.69%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.82%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>73.21%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>168</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$187,020,657</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.26%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-42.87%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>73.21%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>72.46%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>167</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$236,857,190</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.69%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-30.63%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>72.46%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>80.32%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>188</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$238,328,803</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.93%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-50.67%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>80.32%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>180</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$370,615,963</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.81%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-19.53%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -2862,187 +2862,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>70.97%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>372</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$47,414,886</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>8.55%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-32.46%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>70.97%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>73.64%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,036,391,523</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.95%</t>
+          <t>$348,028,179</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-15.12%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.30%</t>
+          <t>-27.56%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>70.26%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$348,028,179</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.91%</t>
+          <t>$68,445,618</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-27.56%</t>
+          <t>7.56%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.64%</t>
+          <t>-28.90%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>80.81%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$68,445,618</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.56%</t>
+          <t>$366,546,156</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-28.90%</t>
+          <t>5.11%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.26%</t>
+          <t>-34.83%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>70.30%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$366,546,156</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.11%</t>
+          <t>$2,036,391,523</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-34.83%</t>
+          <t>5.95%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80.81%</t>
+          <t>-15.12%</t>
         </is>
       </c>
     </row>
@@ -3054,27 +3054,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>66.04%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,944,309</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>38.16%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-19.47%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>66.04%</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3086,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,214</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,869,770,671</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.97%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
@@ -3131,155 +3131,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>63.21%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>106</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$51,106,538</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.97%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.38%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>63.21%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>74.60%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>189</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,094,822,725</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.62%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-31.89%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>74.60%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>56.25%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$55,093,496</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>18.59%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.19%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>56.25%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.70%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>106</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$323,318,093</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.28%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-18.25%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.70%</t>
         </is>
       </c>
     </row>
@@ -3291,219 +3291,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>58.82%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$144,722,509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.58%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-5.45%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>58.82%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>77.33%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>397</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$349,279,012</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.84%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-48.73%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>77.33%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$59,238</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1.51%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0.72%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>64.66%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>116</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$87,511,763</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-30.44%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>64.66%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>42.11%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$5,239,517</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>26.94%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.79%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>42.11%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>75.11%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$243,099,421</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.42%</t>
+          <t>$515,518,359</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-18.18%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>-28.60%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$515,518,359</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.59%</t>
+          <t>$243,099,421</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-28.60%</t>
+          <t>5.42%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>75.11%</t>
+          <t>-18.18%</t>
         </is>
       </c>
     </row>
@@ -3515,27 +3515,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1,214</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$2,869,770,671</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>7.97%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-27.48%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
